--- a/data_validation_novo.xlsx
+++ b/data_validation_novo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\2012-2013-nastava-excel-word\tjedan-11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\os-matosl\PRIPREME-INFORMATIKA\word\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE6E5C3-5EC0-4CD3-ADE9-E4C44496E29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B95A88-B021-4E8A-B9BF-4A84B09CB5A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,6 +63,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -75,13 +76,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +446,7 @@
   <dimension ref="B2:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -456,50 +457,47 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
       <c r="K6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K14" s="1"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
@@ -510,13 +508,13 @@
       <c r="B18">
         <v>23</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>223</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="2"/>
       <c r="K19" t="s">
         <v>3</v>
       </c>
@@ -525,27 +523,27 @@
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="2"/>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
         <v>12</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>77</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="2"/>
       <c r="I21">
         <v>23</v>
       </c>
       <c r="J21">
         <v>55</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="I22">
@@ -554,33 +552,33 @@
       <c r="J22">
         <v>4546</v>
       </c>
-      <c r="K22" s="1"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="K26" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="K28" s="1"/>
+      <c r="K28" s="2"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="K29" s="1"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="K30" s="1"/>
+      <c r="K30" s="2"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="K31" s="1"/>
+      <c r="K31" s="2"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="K32" s="1"/>
+      <c r="K32" s="2"/>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K33" s="1"/>
+      <c r="K33" s="2"/>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K35" t="s">
@@ -588,24 +586,14 @@
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K37" s="1"/>
+      <c r="K37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="naziv upozorenja" error="fulali ste poruku" sqref="K8 K10:K16" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
-    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="NAZIV UPUTE" prompt="UNESITE BROJ" sqref="C18:C21" xr:uid="{664161A4-D7C0-490F-9ABD-BD2DD308DD89}">
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="naziv upozorenja" error="fulali ste poruku" sqref="K16" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
+    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="NAZIV UPUTE" prompt="UNESITE BROJ" sqref="C19:C21 C18" xr:uid="{664161A4-D7C0-490F-9ABD-BD2DD308DD89}">
       <formula1>B18*0.15</formula1>
-    </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="naziv upozorenja" error="fulali ste poruku" sqref="K9" xr:uid="{A603B97A-3DCC-475E-A3F5-6D1101617C16}">
-      <formula1>43952</formula1>
-      <formula2>43982</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="greška" error="pokušatje ponovno" sqref="K20:K22" xr:uid="{A0E7DAED-FE20-4CF0-BA70-AA0BC183EE62}">
-      <formula1>I20+J20</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K28:K32" xr:uid="{54AA3B5D-6131-4DDA-A6EC-34E0B9820FC9}">
-      <formula1>Q$26</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_validation_novo.xlsx
+++ b/data_validation_novo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\os-matosl\PRIPREME-INFORMATIKA\word\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B95A88-B021-4E8A-B9BF-4A84B09CB5A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF8C345-EFB1-4EE5-97C1-6E7EB7E0C1C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="B2:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E4" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -590,11 +590,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="naziv upozorenja" error="fulali ste poruku" sqref="K16" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
-    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="NAZIV UPUTE" prompt="UNESITE BROJ" sqref="C19:C21 C18" xr:uid="{664161A4-D7C0-490F-9ABD-BD2DD308DD89}">
-      <formula1>B18*0.15</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
